--- a/data/trans_camb/CAGE_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/CAGE_R-Edad-trans_camb.xlsx
@@ -646,7 +646,7 @@
         <v>0.08274752409501829</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>-0.2782489552725312</v>
+        <v>-0.2782489552725316</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>0.232496267959576</v>
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.1009027527809364</v>
+        <v>0.1297930412766368</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-1.554084108329566</v>
+        <v>-1.334126241736368</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-1.805933970582252</v>
+        <v>-1.680420650873336</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-1.104911939364387</v>
+        <v>-1.009670965904239</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-1.122174363092811</v>
+        <v>-1.109370609789043</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.567603956456444</v>
+        <v>0.6131979254691506</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.03581672465889263</v>
+        <v>0.04990243870689084</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-0.9536641467854277</v>
+        <v>-0.9743717789323961</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-0.2415510307723368</v>
+        <v>-0.4099009546065895</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>4.049848277759457</v>
+        <v>3.836527964828111</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>1.677721987213415</v>
+        <v>1.801187669442277</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>3.447777607568095</v>
+        <v>3.475955714329547</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>1.484603806413196</v>
+        <v>1.620485063406616</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>1.203600117729591</v>
+        <v>1.295931165292801</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>13.65705446440476</v>
+        <v>14.22653291990077</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>2.209586488969041</v>
+        <v>2.276176507102736</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>1.094391104620287</v>
+        <v>1.08070504120391</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>5.562656452423854</v>
+        <v>5.763952275228328</v>
       </c>
     </row>
     <row r="7">
@@ -751,7 +751,7 @@
         <v>0.06501784131865486</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>-0.2186306674289979</v>
+        <v>-0.2186306674289981</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>0.3203644244517476</v>
@@ -780,23 +780,23 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.1472274736695032</v>
+        <v>-0.02840652133472061</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.8244356869014334</v>
+        <v>-0.7543634306838634</v>
       </c>
       <c r="E8" s="6" t="inlineStr"/>
       <c r="F8" s="6" t="inlineStr"/>
       <c r="G8" s="6" t="inlineStr"/>
       <c r="H8" s="6" t="inlineStr"/>
       <c r="I8" s="6" t="n">
-        <v>-0.04456231167824754</v>
+        <v>-0.121176520556717</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.6970780573729328</v>
+        <v>-0.6865558764797961</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.3619083641944118</v>
+        <v>-0.4781892791892545</v>
       </c>
     </row>
     <row r="9">
@@ -807,23 +807,23 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>6.848350731693795</v>
+        <v>7.061870367030426</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>2.806157425562483</v>
+        <v>3.964555485711085</v>
       </c>
       <c r="E9" s="6" t="inlineStr"/>
       <c r="F9" s="6" t="inlineStr"/>
       <c r="G9" s="6" t="inlineStr"/>
       <c r="H9" s="6" t="inlineStr"/>
       <c r="I9" s="6" t="n">
-        <v>3.675413390794259</v>
+        <v>3.917888950129955</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>1.870788057889137</v>
+        <v>1.858054184504555</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>8.616499866288574</v>
+        <v>10.84359688314082</v>
       </c>
     </row>
     <row r="10">
@@ -873,31 +873,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.1061729374389722</v>
+        <v>0.0655548747961483</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1868816811062105</v>
+        <v>0.2308194837927897</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.2814201878136814</v>
+        <v>0.1554991486080681</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-1.639249296516046</v>
+        <v>-1.598692281677977</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-0.4843431892531533</v>
+        <v>-0.604722460988242</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-0.7047017842725916</v>
+        <v>-0.7315211649616274</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-0.320121713284028</v>
+        <v>-0.2736421536557636</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.1823629446395364</v>
+        <v>0.1265190799712934</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-0.002486053500055577</v>
+        <v>0.1234726169530257</v>
       </c>
     </row>
     <row r="12">
@@ -908,31 +908,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>2.563238060685915</v>
+        <v>2.618990948521284</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>3.108711278799339</v>
+        <v>3.222129374257349</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>6.243285299328029</v>
+        <v>6.506407409178798</v>
       </c>
       <c r="F12" s="5" t="n">
         <v>0</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>1.418686557754499</v>
+        <v>1.348185714542682</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>2.288612608881573</v>
+        <v>2.273542127363563</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>1.218300067480955</v>
+        <v>1.297491676985809</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>1.826705231603834</v>
+        <v>1.95866290949118</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>4.219885782316031</v>
+        <v>3.995565982735367</v>
       </c>
     </row>
     <row r="13">
@@ -978,13 +978,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.1586176693650584</v>
+        <v>-0.1544660781660505</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.05739877506166617</v>
+        <v>0.01465069054469619</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.1305784459142141</v>
+        <v>-0.09675804249490635</v>
       </c>
       <c r="F14" s="6" t="inlineStr"/>
       <c r="G14" s="6" t="n">
@@ -992,13 +992,13 @@
       </c>
       <c r="H14" s="6" t="inlineStr"/>
       <c r="I14" s="6" t="n">
-        <v>-0.3933997280426718</v>
+        <v>-0.3396519818749655</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.02577710262250731</v>
+        <v>0.03780936838765261</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.2356474009457957</v>
+        <v>-0.1516993481882178</v>
       </c>
     </row>
     <row r="15">
@@ -1009,25 +1009,25 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>7.211242245772941</v>
+        <v>6.310977797691621</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>7.887500736689774</v>
+        <v>7.212250180280135</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>14.64953492295343</v>
+        <v>16.62462683854188</v>
       </c>
       <c r="F15" s="6" t="inlineStr"/>
       <c r="G15" s="6" t="inlineStr"/>
       <c r="H15" s="6" t="inlineStr"/>
       <c r="I15" s="6" t="n">
-        <v>3.437959275765138</v>
+        <v>4.122201761306119</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>5.016352751063926</v>
+        <v>5.821618192733248</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>8.601706421310295</v>
+        <v>8.35579755622493</v>
       </c>
     </row>
     <row r="16">
@@ -1057,7 +1057,7 @@
         <v>0.1192131883349516</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>1.086558894129391</v>
+        <v>1.08655889412939</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>0.502362630275336</v>
@@ -1077,31 +1077,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.027980180573364</v>
+        <v>0.07454297716707106</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-0.529473111307786</v>
+        <v>-0.5826762616440243</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-0.3207473518259291</v>
+        <v>-0.3250775852593245</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-0.7326362078300521</v>
+        <v>-0.8237500114250907</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-0.3192952040062936</v>
+        <v>-0.3084421044921771</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.1190079468885394</v>
+        <v>0.1276808020316322</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-0.02983060329451907</v>
+        <v>-0.08276178663095241</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-0.2335326258199543</v>
+        <v>-0.2609999121622426</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.1805882783764633</v>
+        <v>0.212825562693714</v>
       </c>
     </row>
     <row r="18">
@@ -1112,31 +1112,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>2.479958282409919</v>
+        <v>2.546454561419171</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>1.554278563730116</v>
+        <v>1.557150023662723</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>3.299944239794854</v>
+        <v>3.230777552987462</v>
       </c>
       <c r="F18" s="5" t="n">
         <v>0</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.556329502353742</v>
+        <v>0.6565620004855014</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>3.623357162744824</v>
+        <v>3.283647884472095</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>1.155805256123834</v>
+        <v>1.185477759060207</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.9144209229577984</v>
+        <v>0.878451446388601</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>2.548329977337039</v>
+        <v>2.700419249948279</v>
       </c>
     </row>
     <row r="19">
@@ -1153,7 +1153,7 @@
         <v>0.5793800944042378</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>1.418118634506883</v>
+        <v>1.418118634506884</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>-1</v>
@@ -1162,7 +1162,7 @@
         <v>0.8079960814536459</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>7.364414466111185</v>
+        <v>7.364414466111182</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>1.1365598687163</v>
@@ -1182,25 +1182,25 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.1607547058717655</v>
+        <v>-0.1349221247486684</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.5196792276922929</v>
+        <v>-0.6356506703357848</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.5097250927057824</v>
+        <v>-0.5747291844064304</v>
       </c>
       <c r="F20" s="6" t="inlineStr"/>
       <c r="G20" s="6" t="inlineStr"/>
       <c r="H20" s="6" t="inlineStr"/>
       <c r="I20" s="6" t="n">
-        <v>-0.184568961596482</v>
+        <v>-0.2299383739931502</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.467572437555766</v>
+        <v>-0.4219874047246349</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>0.1312482365014246</v>
+        <v>0.1544644289394687</v>
       </c>
     </row>
     <row r="21">
@@ -1211,25 +1211,25 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>7.506299572641232</v>
+        <v>7.891384858686767</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>4.749178401228677</v>
+        <v>4.698635725486802</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>10.46062244819453</v>
+        <v>8.520791438887732</v>
       </c>
       <c r="F21" s="6" t="inlineStr"/>
       <c r="G21" s="6" t="inlineStr"/>
       <c r="H21" s="6" t="inlineStr"/>
       <c r="I21" s="6" t="n">
-        <v>6.584135220577547</v>
+        <v>5.599636850974066</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>4.897264141086302</v>
+        <v>4.168492504157358</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>11.92517575229232</v>
+        <v>12.97077523687519</v>
       </c>
     </row>
     <row r="22">
@@ -1279,31 +1279,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>1.044842768596698</v>
+        <v>0.987121962332032</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.6738907422508993</v>
+        <v>0.765867199131961</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.7755999071473758</v>
+        <v>0.8187640775964814</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-1.475112074065049</v>
+        <v>-1.358088101078621</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-0.3853908546364214</v>
+        <v>-0.3418166758760766</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.1123507437701742</v>
+        <v>0.110786709627405</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.3156484936506714</v>
+        <v>0.3344119201524471</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.3445668821220041</v>
+        <v>0.3532556389161705</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.8159641387118262</v>
+        <v>0.7727235762770606</v>
       </c>
     </row>
     <row r="24">
@@ -1314,31 +1314,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>3.866578555558023</v>
+        <v>3.835823872978002</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>2.986874291955333</v>
+        <v>3.072403658651847</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>3.906394153138389</v>
+        <v>4.43013053634236</v>
       </c>
       <c r="F24" s="5" t="n">
         <v>0</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>1.123167794651872</v>
+        <v>1.030474670114514</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>3.466252890139782</v>
+        <v>3.062616742153199</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>1.826685281225956</v>
+        <v>1.855758565328336</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>1.764323962192907</v>
+        <v>1.663470177962265</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>3.054086787658888</v>
+        <v>2.797671034655476</v>
       </c>
     </row>
     <row r="25">
@@ -1463,31 +1463,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-2.74844595723701</v>
+        <v>-2.749214601313206</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-2.15809483189432</v>
+        <v>-2.040454967156655</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-0.3413380384663524</v>
+        <v>-0.09541076366488702</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-1.013368979006312</v>
+        <v>-0.7994663625709206</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-0.5191631566216631</v>
+        <v>-0.4378488496109972</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>0.7500518220040373</v>
+        <v>0.8161534185252922</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-1.437404857929824</v>
+        <v>-1.414643261976082</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-0.8907718670768172</v>
+        <v>-0.9163823110381294</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>1.090515982902462</v>
+        <v>1.087578159828742</v>
       </c>
     </row>
     <row r="30">
@@ -1498,31 +1498,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.8337618153863052</v>
+        <v>0.9518469044085061</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>1.82324827058744</v>
+        <v>1.93186287898548</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>4.874549146408587</v>
+        <v>4.826623763945529</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.4494437177724913</v>
+        <v>0.4549758376856683</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>1.396902662836642</v>
+        <v>1.590791706689233</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>5.016014775631107</v>
+        <v>5.039656098338253</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>0.5108008120356896</v>
+        <v>0.4560402653651428</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>1.308421342184718</v>
+        <v>1.143412297327485</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>4.475595368710131</v>
+        <v>4.757966393043047</v>
       </c>
     </row>
     <row r="31">
@@ -1568,25 +1568,25 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-1</v>
+        <v>-0.9182531961405475</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.7550123360108788</v>
+        <v>-0.7068005970096819</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.2428086452240443</v>
+        <v>-0.1239148879189277</v>
       </c>
       <c r="F32" s="6" t="inlineStr"/>
       <c r="G32" s="6" t="inlineStr"/>
       <c r="H32" s="6" t="inlineStr"/>
       <c r="I32" s="6" t="n">
-        <v>-0.8818113224612786</v>
+        <v>-0.9103082710494005</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.5991309609227968</v>
+        <v>-0.6084291756007557</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>0.4646195886290082</v>
+        <v>0.4248900089382939</v>
       </c>
     </row>
     <row r="33">
@@ -1597,25 +1597,25 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>1.657159890794863</v>
+        <v>1.865001701229556</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>2.140660371787041</v>
+        <v>1.950905722210171</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>4.777838204143373</v>
+        <v>4.636851700179699</v>
       </c>
       <c r="F33" s="6" t="inlineStr"/>
       <c r="G33" s="6" t="inlineStr"/>
       <c r="H33" s="6" t="inlineStr"/>
       <c r="I33" s="6" t="n">
-        <v>1.61870012058585</v>
+        <v>1.134337677001157</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>2.619867626158683</v>
+        <v>2.344801081872943</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>7.937978484789727</v>
+        <v>7.998946475127841</v>
       </c>
     </row>
     <row r="34">
@@ -1636,7 +1636,7 @@
         <v>0.2872904344999366</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>2.354693665868037</v>
+        <v>2.354693665868038</v>
       </c>
       <c r="F34" s="5" t="n">
         <v>0</v>
@@ -1665,13 +1665,13 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>0.6202906184067056</v>
+        <v>0.6039563231941107</v>
       </c>
       <c r="D35" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>1.060606564454016</v>
+        <v>1.001349901861428</v>
       </c>
       <c r="F35" s="5" t="inlineStr"/>
       <c r="G35" s="5" t="n">
@@ -1681,13 +1681,13 @@
         <v>0</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>0.1530637014988451</v>
+        <v>0.2828346439637774</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>0</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>0.882595786053068</v>
+        <v>0.8534680698632878</v>
       </c>
     </row>
     <row r="36">
@@ -1698,29 +1698,29 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>4.428804052312771</v>
+        <v>4.228596578534169</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>1.762237543228485</v>
+        <v>1.443358746095425</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>4.902488232438882</v>
+        <v>4.497098649583132</v>
       </c>
       <c r="F36" s="5" t="inlineStr"/>
       <c r="G36" s="5" t="n">
-        <v>1.415424991521701</v>
+        <v>1.427580889586986</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>3.479662500032791</v>
+        <v>3.858248075020036</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>1.794974858579945</v>
+        <v>1.958716621096211</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>0.9773700678594467</v>
+        <v>1.003539424843514</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>3.466059616325139</v>
+        <v>3.458991749038619</v>
       </c>
     </row>
     <row r="37">
@@ -1824,7 +1824,7 @@
         <v>-0.124877995557262</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>1.751011792116576</v>
+        <v>1.751011792116577</v>
       </c>
       <c r="F40" s="5" t="n">
         <v>0</v>
@@ -1853,13 +1853,13 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-0.9598265696712864</v>
+        <v>-0.9540954953133053</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-1.571596517405015</v>
+        <v>-1.935015869020805</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>0.01193773114861351</v>
+        <v>-0.04351332774810778</v>
       </c>
       <c r="F41" s="5" t="inlineStr"/>
       <c r="G41" s="5" t="inlineStr"/>
@@ -1867,13 +1867,13 @@
         <v>0</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>-0.3705067697965209</v>
+        <v>-0.3707346114386494</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>-0.6018296407373591</v>
+        <v>-0.5984581387135421</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>0.5495373556534136</v>
+        <v>0.4222852373455296</v>
       </c>
     </row>
     <row r="42">
@@ -1884,27 +1884,27 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>3.655355718002721</v>
+        <v>3.633283662687355</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>0.7116682577206361</v>
+        <v>0.7097830743736209</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>5.013864364666782</v>
+        <v>4.871433845442973</v>
       </c>
       <c r="F42" s="5" t="inlineStr"/>
       <c r="G42" s="5" t="inlineStr"/>
       <c r="H42" s="5" t="n">
-        <v>8.716029031912107</v>
+        <v>7.454761491199323</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>1.435948975046599</v>
+        <v>1.436917486315407</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>0.2793614078973686</v>
+        <v>0.278348386800665</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>4.392701352843951</v>
+        <v>4.722677799759445</v>
       </c>
     </row>
     <row r="43">
@@ -1921,7 +1921,7 @@
         <v>-0.2603346597664888</v>
       </c>
       <c r="E43" s="6" t="n">
-        <v>3.650355349744161</v>
+        <v>3.650355349744162</v>
       </c>
       <c r="F43" s="6" t="inlineStr"/>
       <c r="G43" s="6" t="inlineStr"/>
@@ -2001,7 +2001,7 @@
         <v>0.2015724670459107</v>
       </c>
       <c r="H46" s="5" t="n">
-        <v>1.582338912543387</v>
+        <v>1.582338912543386</v>
       </c>
       <c r="I46" s="5" t="n">
         <v>0.4909630617186783</v>
@@ -2010,7 +2010,7 @@
         <v>0.4216068920249668</v>
       </c>
       <c r="K46" s="5" t="n">
-        <v>1.726843015214254</v>
+        <v>1.726843015214255</v>
       </c>
     </row>
     <row r="47">
@@ -2021,31 +2021,31 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>0.5876510308525024</v>
+        <v>0.5109158226799537</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>0.1800456490936897</v>
+        <v>0.1321132311506551</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>0.9076797830776316</v>
+        <v>0.9178260940861099</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>-0.4028482858428777</v>
+        <v>-0.3544708631982961</v>
       </c>
       <c r="G47" s="5" t="n">
-        <v>-0.09574019360315275</v>
+        <v>-0.07603718568160729</v>
       </c>
       <c r="H47" s="5" t="n">
-        <v>0.8260294981279969</v>
+        <v>0.7566438838570906</v>
       </c>
       <c r="I47" s="5" t="n">
-        <v>0.1419609093125463</v>
+        <v>0.1891010318212656</v>
       </c>
       <c r="J47" s="5" t="n">
-        <v>0.0868959234009373</v>
+        <v>0.1434325465711014</v>
       </c>
       <c r="K47" s="5" t="n">
-        <v>1.190954374115476</v>
+        <v>1.126169094156158</v>
       </c>
     </row>
     <row r="48">
@@ -2056,31 +2056,31 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>1.766446831627142</v>
+        <v>1.746510213648094</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>1.209901713425606</v>
+        <v>1.228558568363031</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>2.607584042589708</v>
+        <v>2.597809685336613</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>0.07967330771562514</v>
+        <v>0.08249814466271869</v>
       </c>
       <c r="G48" s="5" t="n">
-        <v>0.5025243498074267</v>
+        <v>0.5172451008925283</v>
       </c>
       <c r="H48" s="5" t="n">
-        <v>2.930244625185822</v>
+        <v>2.744456479662503</v>
       </c>
       <c r="I48" s="5" t="n">
-        <v>0.8296780686097652</v>
+        <v>0.8329490088539612</v>
       </c>
       <c r="J48" s="5" t="n">
-        <v>0.7088220028634091</v>
+        <v>0.7231232323997444</v>
       </c>
       <c r="K48" s="5" t="n">
-        <v>2.429064176528442</v>
+        <v>2.379340683535454</v>
       </c>
     </row>
     <row r="49">
@@ -2097,7 +2097,7 @@
         <v>0.8365639345151586</v>
       </c>
       <c r="E49" s="6" t="n">
-        <v>2.147476312639177</v>
+        <v>2.147476312639178</v>
       </c>
       <c r="F49" s="6" t="n">
         <v>-0.4761111957372998</v>
@@ -2106,7 +2106,7 @@
         <v>0.733314556516199</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>5.756501246997157</v>
+        <v>5.756501246997156</v>
       </c>
       <c r="I49" s="6" t="n">
         <v>0.9355755420086828</v>
@@ -2115,7 +2115,7 @@
         <v>0.8034109432592538</v>
       </c>
       <c r="K49" s="6" t="n">
-        <v>3.290659147080026</v>
+        <v>3.290659147080027</v>
       </c>
     </row>
     <row r="50">
@@ -2126,31 +2126,31 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>0.5706005344438384</v>
+        <v>0.452151620860808</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>0.1268541800403566</v>
+        <v>0.1086334562600995</v>
       </c>
       <c r="E50" s="6" t="n">
-        <v>0.8761897462082826</v>
+        <v>0.9542468514768954</v>
       </c>
       <c r="F50" s="6" t="n">
-        <v>-0.8944250311921697</v>
+        <v>-0.8372960552638956</v>
       </c>
       <c r="G50" s="6" t="n">
-        <v>-0.3047799086451388</v>
+        <v>-0.280367410756344</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>1.636633272709704</v>
+        <v>1.71281044692423</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.183887312866997</v>
+        <v>0.2596459875488039</v>
       </c>
       <c r="J50" s="6" t="n">
-        <v>0.1174738232264967</v>
+        <v>0.1554331972053336</v>
       </c>
       <c r="K50" s="6" t="n">
-        <v>1.83555896095187</v>
+        <v>1.687551170138016</v>
       </c>
     </row>
     <row r="51">
@@ -2161,31 +2161,31 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>3.086117256509475</v>
+        <v>3.060619095489931</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>2.046262285046072</v>
+        <v>2.252746425672596</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>4.254960465199834</v>
+        <v>4.496214157092889</v>
       </c>
       <c r="F51" s="6" t="n">
-        <v>0.9170898701515497</v>
+        <v>1.214684116562802</v>
       </c>
       <c r="G51" s="6" t="n">
-        <v>3.723397858136778</v>
+        <v>3.66155796445856</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>17.30009792495099</v>
+        <v>17.73047322181736</v>
       </c>
       <c r="I51" s="6" t="n">
-        <v>1.973785534029444</v>
+        <v>2.070509910628307</v>
       </c>
       <c r="J51" s="6" t="n">
-        <v>1.739717022267387</v>
+        <v>1.704699754939389</v>
       </c>
       <c r="K51" s="6" t="n">
-        <v>5.705646580254811</v>
+        <v>5.388101562610845</v>
       </c>
     </row>
     <row r="52">
